--- a/report/spending-time/by-Sex/NonParametricAnalysis.xlsx
+++ b/report/spending-time/by-Sex/NonParametricAnalysis.xlsx
@@ -161,7 +161,7 @@
     <t>LikeMMORPGGames</t>
   </si>
   <si>
-    <t>LikeShooterSames</t>
+    <t>LikeShooterGames</t>
   </si>
   <si>
     <t>LikeSimulationGames</t>
